--- a/backend/payslips/payslip_EMP003_2025_11.xlsx
+++ b/backend/payslips/payslip_EMP003_2025_11.xlsx
@@ -624,7 +624,7 @@
         <v>Generated on</v>
       </c>
       <c r="B35" t="str">
-        <v>3/11/2025</v>
+        <v>4/11/2025</v>
       </c>
     </row>
   </sheetData>

--- a/backend/payslips/payslip_EMP003_2025_11.xlsx
+++ b/backend/payslips/payslip_EMP003_2025_11.xlsx
@@ -624,7 +624,7 @@
         <v>Generated on</v>
       </c>
       <c r="B35" t="str">
-        <v>4/11/2025</v>
+        <v>5/11/2025</v>
       </c>
     </row>
   </sheetData>
